--- a/CONTROLS.xlsx
+++ b/CONTROLS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1284,7 +1284,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
